--- a/return_prob.xlsx
+++ b/return_prob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noa_s\.vscode\Projects\Python\inDev\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C5CC07-877C-4A0C-AF57-1345ECAB0E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C2B5C-FC73-4569-84BB-B89E1086CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EA1DFC7-AC2B-4439-985D-EF6B09005247}"/>
   </bookViews>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="E1">
-        <f>MAX(0, $B$1*10 - POWER(D1, 2.6))/$B$2</f>
+        <f>($B$1*10 - POWER(D1, 2.6))/$B$2</f>
         <v>98.588187811737015</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E41" si="0">MAX(0, $B$1*10 - POWER(D2, 2.6))/$B$2</f>
+        <f t="shared" ref="E2:E41" si="0">($B$1*10 - POWER(D2, 2.6))/$B$2</f>
         <v>98.180939741345512</v>
       </c>
     </row>
